--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.6094509506367</v>
+        <v>10668.2807391766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.6094509506367</v>
+        <v>10668.2807391766</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77444.66565991713</v>
+        <v>5168698.673855701</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77444.66565991713</v>
+        <v>5168698.673855701</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961264392.4623145</v>
+        <v>38096094.37795262</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12150.71278782457</v>
+        <v>1177479.44176049</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21548.96591544866</v>
+        <v>1879301.691880508</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30953.42389546378</v>
+        <v>2581123.942000527</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40546.77772266897</v>
+        <v>3282242.768469756</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50140.13154987415</v>
+        <v>3983361.594938984</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59733.48242676159</v>
+        <v>4684480.421408214</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69326.83625396679</v>
+        <v>5385599.247877438</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78920.13703325421</v>
+        <v>6086718.074346662</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88518.69632710936</v>
+        <v>6786780.514823937</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98119.39999900255</v>
+        <v>7487269.686530781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107720.1036708957</v>
+        <v>8187758.858237632</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117320.8073427889</v>
+        <v>8888248.029944483</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126921.5110146821</v>
+        <v>9588737.201651338</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136522.2146865753</v>
+        <v>10289226.3733582</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146122.9183584685</v>
+        <v>10989715.54506505</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
